--- a/lectures/Logarithms.xlsx
+++ b/lectures/Logarithms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saqibali/Documents/git/bs-algo/lectures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saqibali/Documents/git/ms-algo/lectures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CCC95-65E3-9D42-B94E-6E419504F792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A7AF5-F0C9-984E-9859-E1DD7CF946AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="520" windowWidth="25440" windowHeight="14640" activeTab="1" xr2:uid="{7247F942-492A-5742-B340-6CA18B032E0C}"/>
+    <workbookView xWindow="3020" yWindow="520" windowWidth="29660" windowHeight="17100" xr2:uid="{7247F942-492A-5742-B340-6CA18B032E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,11 +213,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2374,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC0B37C-B8FC-CB47-9895-42901F563E43}">
   <dimension ref="B5:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2877,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9532625-F08E-E647-B84B-3BBD7A7A920E}">
   <dimension ref="A3:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -3089,7 +3089,7 @@
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>(E24-E23)/(D24-D23)</f>
         <v>3</v>
       </c>
@@ -3222,36 +3222,36 @@
       <c r="C42" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
